--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.809422881722379</v>
+        <v>0.8603190000000001</v>
       </c>
       <c r="N2">
-        <v>0.809422881722379</v>
+        <v>2.580957</v>
       </c>
       <c r="O2">
-        <v>0.2976670979675724</v>
+        <v>0.2585020911374772</v>
       </c>
       <c r="P2">
-        <v>0.2976670979675724</v>
+        <v>0.2585020911374772</v>
       </c>
       <c r="Q2">
-        <v>114.6842332952555</v>
+        <v>129.078331675716</v>
       </c>
       <c r="R2">
-        <v>114.6842332952555</v>
+        <v>1161.704985081444</v>
       </c>
       <c r="S2">
-        <v>0.1256298531228115</v>
+        <v>0.1073431837304921</v>
       </c>
       <c r="T2">
-        <v>0.1256298531228115</v>
+        <v>0.1073431837304921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +593,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.90979898474859</v>
+        <v>2.030880333333334</v>
       </c>
       <c r="N3">
-        <v>1.90979898474859</v>
+        <v>6.092641</v>
       </c>
       <c r="O3">
-        <v>0.7023329020324276</v>
+        <v>0.6102234322578526</v>
       </c>
       <c r="P3">
-        <v>0.7023329020324276</v>
+        <v>0.6102234322578526</v>
       </c>
       <c r="Q3">
-        <v>270.5925879533903</v>
+        <v>304.7040054441302</v>
       </c>
       <c r="R3">
-        <v>270.5925879533903</v>
+        <v>2742.336048997172</v>
       </c>
       <c r="S3">
-        <v>0.2964183140431059</v>
+        <v>0.2533957296719507</v>
       </c>
       <c r="T3">
-        <v>0.2964183140431059</v>
+        <v>0.2533957296719507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.92168737024831</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>67.92168737024831</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.809422881722379</v>
+        <v>0.074889</v>
       </c>
       <c r="N4">
-        <v>0.809422881722379</v>
+        <v>0.224667</v>
       </c>
       <c r="O4">
-        <v>0.2976670979675724</v>
+        <v>0.02250207551291385</v>
       </c>
       <c r="P4">
-        <v>0.2976670979675724</v>
+        <v>0.02250207551291385</v>
       </c>
       <c r="Q4">
-        <v>54.9773679226729</v>
+        <v>11.236003367196</v>
       </c>
       <c r="R4">
-        <v>54.9773679226729</v>
+        <v>101.124030304764</v>
       </c>
       <c r="S4">
-        <v>0.06022448298906576</v>
+        <v>0.00934400342941725</v>
       </c>
       <c r="T4">
-        <v>0.06022448298906576</v>
+        <v>0.00934400342941725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.92168737024831</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H5">
-        <v>67.92168737024831</v>
+        <v>450.106292</v>
       </c>
       <c r="I5">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J5">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.90979898474859</v>
+        <v>0.3620046666666667</v>
       </c>
       <c r="N5">
-        <v>1.90979898474859</v>
+        <v>1.086014</v>
       </c>
       <c r="O5">
-        <v>0.7023329020324276</v>
+        <v>0.1087724010917563</v>
       </c>
       <c r="P5">
-        <v>0.7023329020324276</v>
+        <v>0.1087724010917563</v>
       </c>
       <c r="Q5">
-        <v>129.7167695821113</v>
+        <v>54.31352606667645</v>
       </c>
       <c r="R5">
-        <v>129.7167695821113</v>
+        <v>488.821734600088</v>
       </c>
       <c r="S5">
-        <v>0.1420971151998834</v>
+        <v>0.04516781966374744</v>
       </c>
       <c r="T5">
-        <v>0.1420971151998834</v>
+        <v>0.04516781966374744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J6">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.809422881722379</v>
+        <v>0.8603190000000001</v>
       </c>
       <c r="N6">
-        <v>0.809422881722379</v>
+        <v>2.580957</v>
       </c>
       <c r="O6">
-        <v>0.2976670979675724</v>
+        <v>0.2585020911374772</v>
       </c>
       <c r="P6">
-        <v>0.2976670979675724</v>
+        <v>0.2585020911374772</v>
       </c>
       <c r="Q6">
-        <v>73.85448813710119</v>
+        <v>58.83054291551701</v>
       </c>
       <c r="R6">
-        <v>73.85448813710119</v>
+        <v>529.4748862396531</v>
       </c>
       <c r="S6">
-        <v>0.08090326133355501</v>
+        <v>0.04892422837483121</v>
       </c>
       <c r="T6">
-        <v>0.08090326133355501</v>
+        <v>0.04892422837483121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J7">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.90979898474859</v>
+        <v>2.030880333333334</v>
       </c>
       <c r="N7">
-        <v>1.90979898474859</v>
+        <v>6.092641</v>
       </c>
       <c r="O7">
-        <v>0.7023329020324276</v>
+        <v>0.6102234322578526</v>
       </c>
       <c r="P7">
-        <v>0.7023329020324276</v>
+        <v>0.6102234322578526</v>
       </c>
       <c r="Q7">
-        <v>174.2565346845975</v>
+        <v>138.876152457921</v>
       </c>
       <c r="R7">
-        <v>174.2565346845975</v>
+        <v>1249.885372121289</v>
       </c>
       <c r="S7">
-        <v>0.1908878163030084</v>
+        <v>0.1154911762148149</v>
       </c>
       <c r="T7">
-        <v>0.1908878163030084</v>
+        <v>0.1154911762148149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.8599992401179</v>
+        <v>68.382243</v>
       </c>
       <c r="H8">
-        <v>34.8599992401179</v>
+        <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.1038391570085698</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J8">
-        <v>0.1038391570085698</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.809422881722379</v>
+        <v>0.074889</v>
       </c>
       <c r="N8">
-        <v>0.809422881722379</v>
+        <v>0.224667</v>
       </c>
       <c r="O8">
-        <v>0.2976670979675724</v>
+        <v>0.02250207551291385</v>
       </c>
       <c r="P8">
-        <v>0.2976670979675724</v>
+        <v>0.02250207551291385</v>
       </c>
       <c r="Q8">
-        <v>28.21648104177617</v>
+        <v>5.121077796027</v>
       </c>
       <c r="R8">
-        <v>28.21648104177617</v>
+        <v>46.089700164243</v>
       </c>
       <c r="S8">
-        <v>0.03090950052214009</v>
+        <v>0.004258753484187533</v>
       </c>
       <c r="T8">
-        <v>0.03090950052214009</v>
+        <v>0.004258753484187533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>68.382243</v>
+      </c>
+      <c r="H9">
+        <v>205.146729</v>
+      </c>
+      <c r="I9">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="J9">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3620046666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.086014</v>
+      </c>
+      <c r="O9">
+        <v>0.1087724010917563</v>
+      </c>
+      <c r="P9">
+        <v>0.1087724010917563</v>
+      </c>
+      <c r="Q9">
+        <v>24.754691083134</v>
+      </c>
+      <c r="R9">
+        <v>222.792219748206</v>
+      </c>
+      <c r="S9">
+        <v>0.02058631622079095</v>
+      </c>
+      <c r="T9">
+        <v>0.02058631622079095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>104.737245</v>
+      </c>
+      <c r="H10">
+        <v>314.211735</v>
+      </c>
+      <c r="I10">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J10">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8603190000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.580957</v>
+      </c>
+      <c r="O10">
+        <v>0.2585020911374772</v>
+      </c>
+      <c r="P10">
+        <v>0.2585020911374772</v>
+      </c>
+      <c r="Q10">
+        <v>90.107441881155</v>
+      </c>
+      <c r="R10">
+        <v>810.9669769303949</v>
+      </c>
+      <c r="S10">
+        <v>0.07493449569547826</v>
+      </c>
+      <c r="T10">
+        <v>0.07493449569547826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>34.8599992401179</v>
-      </c>
-      <c r="H9">
-        <v>34.8599992401179</v>
-      </c>
-      <c r="I9">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="J9">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.90979898474859</v>
-      </c>
-      <c r="N9">
-        <v>1.90979898474859</v>
-      </c>
-      <c r="O9">
-        <v>0.7023329020324276</v>
-      </c>
-      <c r="P9">
-        <v>0.7023329020324276</v>
-      </c>
-      <c r="Q9">
-        <v>66.57559115711378</v>
-      </c>
-      <c r="R9">
-        <v>66.57559115711378</v>
-      </c>
-      <c r="S9">
-        <v>0.07292965648642975</v>
-      </c>
-      <c r="T9">
-        <v>0.07292965648642975</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>104.737245</v>
+      </c>
+      <c r="H11">
+        <v>314.211735</v>
+      </c>
+      <c r="I11">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J11">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.030880333333334</v>
+      </c>
+      <c r="N11">
+        <v>6.092641</v>
+      </c>
+      <c r="O11">
+        <v>0.6102234322578526</v>
+      </c>
+      <c r="P11">
+        <v>0.6102234322578526</v>
+      </c>
+      <c r="Q11">
+        <v>212.708811038015</v>
+      </c>
+      <c r="R11">
+        <v>1914.379299342135</v>
+      </c>
+      <c r="S11">
+        <v>0.176891354946477</v>
+      </c>
+      <c r="T11">
+        <v>0.176891354946477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>104.737245</v>
+      </c>
+      <c r="H12">
+        <v>314.211735</v>
+      </c>
+      <c r="I12">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J12">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.074889</v>
+      </c>
+      <c r="N12">
+        <v>0.224667</v>
+      </c>
+      <c r="O12">
+        <v>0.02250207551291385</v>
+      </c>
+      <c r="P12">
+        <v>0.02250207551291385</v>
+      </c>
+      <c r="Q12">
+        <v>7.843667540804999</v>
+      </c>
+      <c r="R12">
+        <v>70.59300786724499</v>
+      </c>
+      <c r="S12">
+        <v>0.006522893773284875</v>
+      </c>
+      <c r="T12">
+        <v>0.006522893773284875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>104.737245</v>
+      </c>
+      <c r="H13">
+        <v>314.211735</v>
+      </c>
+      <c r="I13">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J13">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.3620046666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.086014</v>
+      </c>
+      <c r="O13">
+        <v>0.1087724010917563</v>
+      </c>
+      <c r="P13">
+        <v>0.1087724010917563</v>
+      </c>
+      <c r="Q13">
+        <v>37.91537146381</v>
+      </c>
+      <c r="R13">
+        <v>341.23834317429</v>
+      </c>
+      <c r="S13">
+        <v>0.0315309055548888</v>
+      </c>
+      <c r="T13">
+        <v>0.03153090555488879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.15794</v>
+      </c>
+      <c r="H14">
+        <v>114.47382</v>
+      </c>
+      <c r="I14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8603190000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.580957</v>
+      </c>
+      <c r="O14">
+        <v>0.2585020911374772</v>
+      </c>
+      <c r="P14">
+        <v>0.2585020911374772</v>
+      </c>
+      <c r="Q14">
+        <v>32.82800078286</v>
+      </c>
+      <c r="R14">
+        <v>295.45200704574</v>
+      </c>
+      <c r="S14">
+        <v>0.02730018333667568</v>
+      </c>
+      <c r="T14">
+        <v>0.02730018333667568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.15794</v>
+      </c>
+      <c r="H15">
+        <v>114.47382</v>
+      </c>
+      <c r="I15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.030880333333334</v>
+      </c>
+      <c r="N15">
+        <v>6.092641</v>
+      </c>
+      <c r="O15">
+        <v>0.6102234322578526</v>
+      </c>
+      <c r="P15">
+        <v>0.6102234322578526</v>
+      </c>
+      <c r="Q15">
+        <v>77.49420990651335</v>
+      </c>
+      <c r="R15">
+        <v>697.4478891586201</v>
+      </c>
+      <c r="S15">
+        <v>0.06444517142460998</v>
+      </c>
+      <c r="T15">
+        <v>0.06444517142460995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.15794</v>
+      </c>
+      <c r="H16">
+        <v>114.47382</v>
+      </c>
+      <c r="I16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.074889</v>
+      </c>
+      <c r="N16">
+        <v>0.224667</v>
+      </c>
+      <c r="O16">
+        <v>0.02250207551291385</v>
+      </c>
+      <c r="P16">
+        <v>0.02250207551291385</v>
+      </c>
+      <c r="Q16">
+        <v>2.85760996866</v>
+      </c>
+      <c r="R16">
+        <v>25.71848971794</v>
+      </c>
+      <c r="S16">
+        <v>0.00237642482602419</v>
+      </c>
+      <c r="T16">
+        <v>0.002376424826024189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.15794</v>
+      </c>
+      <c r="H17">
+        <v>114.47382</v>
+      </c>
+      <c r="I17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.3620046666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.086014</v>
+      </c>
+      <c r="O17">
+        <v>0.1087724010917563</v>
+      </c>
+      <c r="P17">
+        <v>0.1087724010917563</v>
+      </c>
+      <c r="Q17">
+        <v>13.81335235038667</v>
+      </c>
+      <c r="R17">
+        <v>124.32017115348</v>
+      </c>
+      <c r="S17">
+        <v>0.01148735965232916</v>
+      </c>
+      <c r="T17">
+        <v>0.01148735965232916</v>
       </c>
     </row>
   </sheetData>
